--- a/data/pca/factorExposure/factorExposure_2010-01-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-28.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.00471827016318541</v>
+        <v>0.01710895223923713</v>
       </c>
       <c r="C2">
-        <v>-0.01643895818621344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001026608452563278</v>
+      </c>
+      <c r="D2">
+        <v>-0.006843955671273609</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001509261062663311</v>
+      </c>
+      <c r="F2">
+        <v>0.00947378858272558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03080860101917174</v>
+        <v>0.0939154368299696</v>
       </c>
       <c r="C4">
-        <v>-0.1241550115881829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01596331019796467</v>
+      </c>
+      <c r="D4">
+        <v>-0.08244670987528832</v>
+      </c>
+      <c r="E4">
+        <v>-0.02802457473372677</v>
+      </c>
+      <c r="F4">
+        <v>-0.03098604867848088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04018163343994078</v>
+        <v>0.1566875402012693</v>
       </c>
       <c r="C6">
-        <v>-0.1076408676730391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02526087125547078</v>
+      </c>
+      <c r="D6">
+        <v>0.02352642648398745</v>
+      </c>
+      <c r="E6">
+        <v>-0.008819451266329407</v>
+      </c>
+      <c r="F6">
+        <v>-0.04731601492645706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01085193111915887</v>
+        <v>0.06048553013916048</v>
       </c>
       <c r="C7">
-        <v>-0.07286921275445023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0008597791113440288</v>
+      </c>
+      <c r="D7">
+        <v>-0.05162774126829841</v>
+      </c>
+      <c r="E7">
+        <v>-0.01045414638739191</v>
+      </c>
+      <c r="F7">
+        <v>-0.04206583942621121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002563349641200206</v>
+        <v>0.0582681327462759</v>
       </c>
       <c r="C8">
-        <v>-0.06021484080598572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01333382698886586</v>
+      </c>
+      <c r="D8">
+        <v>-0.03188044803636708</v>
+      </c>
+      <c r="E8">
+        <v>-0.01710082667544962</v>
+      </c>
+      <c r="F8">
+        <v>0.02799043182521683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02639222362876567</v>
+        <v>0.07156284505147677</v>
       </c>
       <c r="C9">
-        <v>-0.09775294314717986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01179851543330667</v>
+      </c>
+      <c r="D9">
+        <v>-0.08459457091612298</v>
+      </c>
+      <c r="E9">
+        <v>-0.02294065643368754</v>
+      </c>
+      <c r="F9">
+        <v>-0.04660964531731074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.00707347336393902</v>
+        <v>0.09421077349280783</v>
       </c>
       <c r="C10">
-        <v>-0.0321860496973927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01861582638890076</v>
+      </c>
+      <c r="D10">
+        <v>0.1707357896087685</v>
+      </c>
+      <c r="E10">
+        <v>0.03757168811210525</v>
+      </c>
+      <c r="F10">
+        <v>0.05715040954135854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03008485145000165</v>
+        <v>0.08785244044798934</v>
       </c>
       <c r="C11">
-        <v>-0.1068950117207508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01144263153483215</v>
+      </c>
+      <c r="D11">
+        <v>-0.1165018984749036</v>
+      </c>
+      <c r="E11">
+        <v>-0.04707876153162062</v>
+      </c>
+      <c r="F11">
+        <v>-0.01974752683623605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02775759304447164</v>
+        <v>0.09248423498180948</v>
       </c>
       <c r="C12">
-        <v>-0.1150858199747495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008894836210237848</v>
+      </c>
+      <c r="D12">
+        <v>-0.1291063405595971</v>
+      </c>
+      <c r="E12">
+        <v>-0.04703595987489641</v>
+      </c>
+      <c r="F12">
+        <v>-0.0231555886791824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008529127544876332</v>
+        <v>0.04276685223003542</v>
       </c>
       <c r="C13">
-        <v>-0.0385107260165659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003869508407139147</v>
+      </c>
+      <c r="D13">
+        <v>-0.04914656070205103</v>
+      </c>
+      <c r="E13">
+        <v>0.0110218236076913</v>
+      </c>
+      <c r="F13">
+        <v>-0.002339021712832174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01589817881305534</v>
+        <v>0.02220008194765765</v>
       </c>
       <c r="C14">
-        <v>-0.02547711790988567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01410229408518809</v>
+      </c>
+      <c r="D14">
+        <v>-0.03357350965794476</v>
+      </c>
+      <c r="E14">
+        <v>-0.01695194415810452</v>
+      </c>
+      <c r="F14">
+        <v>-0.01318794701997397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01195301125857206</v>
+        <v>0.03151240902406503</v>
       </c>
       <c r="C15">
-        <v>-0.02686270862457787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005201694535715821</v>
+      </c>
+      <c r="D15">
+        <v>-0.04505246805451604</v>
+      </c>
+      <c r="E15">
+        <v>-0.006575196401996076</v>
+      </c>
+      <c r="F15">
+        <v>-0.02175606379615724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01926404213104713</v>
+        <v>0.07315760464576003</v>
       </c>
       <c r="C16">
-        <v>-0.1125224649440245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002387663671289147</v>
+      </c>
+      <c r="D16">
+        <v>-0.1260721215702737</v>
+      </c>
+      <c r="E16">
+        <v>-0.06233049537173819</v>
+      </c>
+      <c r="F16">
+        <v>-0.02303925196914637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02706147046048137</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.00336587065042672</v>
+      </c>
+      <c r="D18">
+        <v>-0.02021297972274284</v>
+      </c>
+      <c r="E18">
+        <v>0.007048678432885951</v>
+      </c>
+      <c r="F18">
+        <v>0.008801736202637706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01257582561028347</v>
+        <v>0.06012745208656579</v>
       </c>
       <c r="C20">
-        <v>-0.06796418391902509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0006344542085439292</v>
+      </c>
+      <c r="D20">
+        <v>-0.07699200872436295</v>
+      </c>
+      <c r="E20">
+        <v>-0.05574923515208243</v>
+      </c>
+      <c r="F20">
+        <v>-0.02056776689303962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01041155066247011</v>
+        <v>0.03897231113093975</v>
       </c>
       <c r="C21">
-        <v>-0.02130314540583677</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006527075418656563</v>
+      </c>
+      <c r="D21">
+        <v>-0.03715711708245346</v>
+      </c>
+      <c r="E21">
+        <v>0.006280057113773674</v>
+      </c>
+      <c r="F21">
+        <v>0.02723111493836549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.00133970157268349</v>
+        <v>0.0450332254966124</v>
       </c>
       <c r="C22">
-        <v>-0.03521611612779604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0008773083656705582</v>
+      </c>
+      <c r="D22">
+        <v>-0.002298087779212045</v>
+      </c>
+      <c r="E22">
+        <v>-0.02918822654563363</v>
+      </c>
+      <c r="F22">
+        <v>0.03164693331915233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.001355498476352429</v>
+        <v>0.04504003732062631</v>
       </c>
       <c r="C23">
-        <v>-0.0352501238879122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0008929893758349261</v>
+      </c>
+      <c r="D23">
+        <v>-0.002434464896502497</v>
+      </c>
+      <c r="E23">
+        <v>-0.02950407727694747</v>
+      </c>
+      <c r="F23">
+        <v>0.03117197157101536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0202186796426062</v>
+        <v>0.07987473255420399</v>
       </c>
       <c r="C24">
-        <v>-0.1114064376475542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.003084593606714819</v>
+      </c>
+      <c r="D24">
+        <v>-0.120114767977897</v>
+      </c>
+      <c r="E24">
+        <v>-0.05035681779357231</v>
+      </c>
+      <c r="F24">
+        <v>-0.02352257683445953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02484830974334021</v>
+        <v>0.0851100761835987</v>
       </c>
       <c r="C25">
-        <v>-0.1174957823269967</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.005232321616310461</v>
+      </c>
+      <c r="D25">
+        <v>-0.1092004773942844</v>
+      </c>
+      <c r="E25">
+        <v>-0.03345023894320025</v>
+      </c>
+      <c r="F25">
+        <v>-0.02508315338878789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02278782958039985</v>
+        <v>0.05623757058851357</v>
       </c>
       <c r="C26">
-        <v>-0.04769819530165189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01457750893444087</v>
+      </c>
+      <c r="D26">
+        <v>-0.04205433565750696</v>
+      </c>
+      <c r="E26">
+        <v>-0.02738704538614085</v>
+      </c>
+      <c r="F26">
+        <v>0.01137219466489599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.003898093841761473</v>
+        <v>0.1410911558517796</v>
       </c>
       <c r="C28">
-        <v>-0.02310441273339174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01799345374528641</v>
+      </c>
+      <c r="D28">
+        <v>0.2640620179420481</v>
+      </c>
+      <c r="E28">
+        <v>0.06997074631101712</v>
+      </c>
+      <c r="F28">
+        <v>-0.006762457975364449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01540100830942841</v>
+        <v>0.02656313650262286</v>
       </c>
       <c r="C29">
-        <v>-0.02825320096681516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008196131542125496</v>
+      </c>
+      <c r="D29">
+        <v>-0.0332263962699725</v>
+      </c>
+      <c r="E29">
+        <v>-0.01104957416190948</v>
+      </c>
+      <c r="F29">
+        <v>0.01188100562016219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01893727011089707</v>
+        <v>0.06207240127389379</v>
       </c>
       <c r="C30">
-        <v>-0.1267921678538964</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004584988718651024</v>
+      </c>
+      <c r="D30">
+        <v>-0.08653546982774857</v>
+      </c>
+      <c r="E30">
+        <v>-0.02026835403020516</v>
+      </c>
+      <c r="F30">
+        <v>-0.08070916297954209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02346079908888796</v>
+        <v>0.04940194608087645</v>
       </c>
       <c r="C31">
-        <v>-0.03557910418959347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01529879328417609</v>
+      </c>
+      <c r="D31">
+        <v>-0.02522431391031318</v>
+      </c>
+      <c r="E31">
+        <v>-0.02742612114721434</v>
+      </c>
+      <c r="F31">
+        <v>0.00305423917720712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009100016135713443</v>
+        <v>0.04897718876462567</v>
       </c>
       <c r="C32">
-        <v>-0.06101507171981532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001275277639470192</v>
+      </c>
+      <c r="D32">
+        <v>-0.03655752003428255</v>
+      </c>
+      <c r="E32">
+        <v>-0.03108863478993272</v>
+      </c>
+      <c r="F32">
+        <v>0.0001475355032609074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02606064938365895</v>
+        <v>0.08990273022371031</v>
       </c>
       <c r="C33">
-        <v>-0.1163921045283108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008647592297005317</v>
+      </c>
+      <c r="D33">
+        <v>-0.09770190766351844</v>
+      </c>
+      <c r="E33">
+        <v>-0.04527577817277383</v>
+      </c>
+      <c r="F33">
+        <v>-0.0331427099710012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02804035174353913</v>
+        <v>0.06811662851971127</v>
       </c>
       <c r="C34">
-        <v>-0.09733824913347236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01173804439648817</v>
+      </c>
+      <c r="D34">
+        <v>-0.1055635081936444</v>
+      </c>
+      <c r="E34">
+        <v>-0.03487685909439831</v>
+      </c>
+      <c r="F34">
+        <v>-0.03195712947177972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003106078695097834</v>
+        <v>0.02426270590199886</v>
       </c>
       <c r="C35">
-        <v>-0.01328447549911342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002326632489915517</v>
+      </c>
+      <c r="D35">
+        <v>-0.01299288402216513</v>
+      </c>
+      <c r="E35">
+        <v>-0.01172486556149112</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008813904820293884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01157324618544739</v>
+        <v>0.02531999028951883</v>
       </c>
       <c r="C36">
-        <v>-0.02858923079945282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007337383425685988</v>
+      </c>
+      <c r="D36">
+        <v>-0.03988628835382253</v>
+      </c>
+      <c r="E36">
+        <v>-0.01555859332732589</v>
+      </c>
+      <c r="F36">
+        <v>-0.01427436094355218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007686423558826656</v>
+        <v>0.001521332672400588</v>
       </c>
       <c r="C38">
-        <v>-0.005355423082269689</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002411563344755831</v>
+      </c>
+      <c r="D38">
+        <v>-0.0005070983720700367</v>
+      </c>
+      <c r="E38">
+        <v>-0.001050566395515472</v>
+      </c>
+      <c r="F38">
+        <v>0.0006611892112728935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04355676588990069</v>
+        <v>0.1070633885672099</v>
       </c>
       <c r="C39">
-        <v>-0.1716899449671945</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01692618235310428</v>
+      </c>
+      <c r="D39">
+        <v>-0.1530799306811457</v>
+      </c>
+      <c r="E39">
+        <v>-0.05963720117466868</v>
+      </c>
+      <c r="F39">
+        <v>-0.02813320111295156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008258988040856757</v>
+        <v>0.0396787525895823</v>
       </c>
       <c r="C40">
-        <v>-0.01401815198921163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007459961978871899</v>
+      </c>
+      <c r="D40">
+        <v>-0.03211689933691</v>
+      </c>
+      <c r="E40">
+        <v>-0.003103899379749064</v>
+      </c>
+      <c r="F40">
+        <v>0.01775777713627087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01372499225125439</v>
+        <v>0.02653163723999313</v>
       </c>
       <c r="C41">
-        <v>-0.02111473058112127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006640016195860144</v>
+      </c>
+      <c r="D41">
+        <v>-0.01125688356649311</v>
+      </c>
+      <c r="E41">
+        <v>-0.01260784864295709</v>
+      </c>
+      <c r="F41">
+        <v>0.006706440578616334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01243395933104509</v>
+        <v>0.03975656484504839</v>
       </c>
       <c r="C43">
-        <v>-0.02516361800266077</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006818950015090106</v>
+      </c>
+      <c r="D43">
+        <v>-0.02055112225355373</v>
+      </c>
+      <c r="E43">
+        <v>-0.02522168523293725</v>
+      </c>
+      <c r="F43">
+        <v>0.01202725312658201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03624826747768033</v>
+        <v>0.07731877964153629</v>
       </c>
       <c r="C44">
-        <v>-0.132414377431302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02108232989536201</v>
+      </c>
+      <c r="D44">
+        <v>-0.09788091312777561</v>
+      </c>
+      <c r="E44">
+        <v>-0.06583856525667858</v>
+      </c>
+      <c r="F44">
+        <v>-0.1504409818756406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005348532051024507</v>
+        <v>0.0238488127552798</v>
       </c>
       <c r="C46">
-        <v>-0.008956809564268694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003697754589259169</v>
+      </c>
+      <c r="D46">
+        <v>-0.01287317930761837</v>
+      </c>
+      <c r="E46">
+        <v>-0.02182807357712233</v>
+      </c>
+      <c r="F46">
+        <v>0.003736620361775419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01401043783579235</v>
+        <v>0.05074061022595922</v>
       </c>
       <c r="C47">
-        <v>-0.04223968241329494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003588100789565648</v>
+      </c>
+      <c r="D47">
+        <v>-0.01270362440666035</v>
+      </c>
+      <c r="E47">
+        <v>-0.02294316752825842</v>
+      </c>
+      <c r="F47">
+        <v>0.0336834581881112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01342427655610972</v>
+        <v>0.04847203668047969</v>
       </c>
       <c r="C48">
-        <v>-0.04721309270223837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002633406645864599</v>
+      </c>
+      <c r="D48">
+        <v>-0.05091951769543979</v>
+      </c>
+      <c r="E48">
+        <v>0.006186115416435551</v>
+      </c>
+      <c r="F48">
+        <v>-0.008677543538546491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03940207222855293</v>
+        <v>0.2022540272593516</v>
       </c>
       <c r="C49">
-        <v>-0.2056183465160779</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01861626292326629</v>
+      </c>
+      <c r="D49">
+        <v>0.01312349459374475</v>
+      </c>
+      <c r="E49">
+        <v>-0.03025430267546059</v>
+      </c>
+      <c r="F49">
+        <v>-0.03695406465819447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0193401023736621</v>
+        <v>0.04951888885233339</v>
       </c>
       <c r="C50">
-        <v>-0.04278286556704296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01135380240295836</v>
+      </c>
+      <c r="D50">
+        <v>-0.02427203902167939</v>
+      </c>
+      <c r="E50">
+        <v>-0.02986348254921288</v>
+      </c>
+      <c r="F50">
+        <v>-0.007627244760661265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0006518449865544467</v>
+        <v>0.001447697730347772</v>
       </c>
       <c r="C51">
-        <v>-0.004486754525620563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0003706038583929809</v>
+      </c>
+      <c r="D51">
+        <v>0.001621048644664606</v>
+      </c>
+      <c r="E51">
+        <v>1.124054000806247e-06</v>
+      </c>
+      <c r="F51">
+        <v>-0.002896578251910806</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03249902283156948</v>
+        <v>0.1462494431788133</v>
       </c>
       <c r="C52">
-        <v>-0.1452587547755559</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01503584261601625</v>
+      </c>
+      <c r="D52">
+        <v>-0.0466286553246639</v>
+      </c>
+      <c r="E52">
+        <v>-0.02087350271737102</v>
+      </c>
+      <c r="F52">
+        <v>-0.04533213141115946</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03091481506593557</v>
+        <v>0.1740389643751535</v>
       </c>
       <c r="C53">
-        <v>-0.1586970756118486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01826935664705607</v>
+      </c>
+      <c r="D53">
+        <v>-0.005693608025386555</v>
+      </c>
+      <c r="E53">
+        <v>-0.0315109909290246</v>
+      </c>
+      <c r="F53">
+        <v>-0.07684454093385985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0156377017121311</v>
+        <v>0.0212311761755517</v>
       </c>
       <c r="C54">
-        <v>-0.0494720394537558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01246392005955479</v>
+      </c>
+      <c r="D54">
+        <v>-0.03337949879516105</v>
+      </c>
+      <c r="E54">
+        <v>-0.01654339981372974</v>
+      </c>
+      <c r="F54">
+        <v>0.003562459748379666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02532946100134997</v>
+        <v>0.1143316022077778</v>
       </c>
       <c r="C55">
-        <v>-0.08862379492665313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01627191598726525</v>
+      </c>
+      <c r="D55">
+        <v>-0.009757207428116397</v>
+      </c>
+      <c r="E55">
+        <v>-0.02807455592598652</v>
+      </c>
+      <c r="F55">
+        <v>-0.0495013102931618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03496028130567871</v>
+        <v>0.1784428685791515</v>
       </c>
       <c r="C56">
-        <v>-0.1604700518025981</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01557196090591706</v>
+      </c>
+      <c r="D56">
+        <v>-0.002127347322349166</v>
+      </c>
+      <c r="E56">
+        <v>-0.03746365821007145</v>
+      </c>
+      <c r="F56">
+        <v>-0.05629383377150134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01207376082613877</v>
+        <v>0.04648447296063887</v>
       </c>
       <c r="C58">
-        <v>-0.04648617804983876</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001295446788171214</v>
+      </c>
+      <c r="D58">
+        <v>-0.06735221310799744</v>
+      </c>
+      <c r="E58">
+        <v>-0.02754905588890062</v>
+      </c>
+      <c r="F58">
+        <v>0.03943118547538564</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01250912935264109</v>
+        <v>0.1697884673586716</v>
       </c>
       <c r="C59">
-        <v>-0.08158497181582165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01872324969373986</v>
+      </c>
+      <c r="D59">
+        <v>0.2210975003940667</v>
+      </c>
+      <c r="E59">
+        <v>0.04554291620063678</v>
+      </c>
+      <c r="F59">
+        <v>0.03247584498677948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03507085273718456</v>
+        <v>0.2340010457254232</v>
       </c>
       <c r="C60">
-        <v>-0.2760721434787611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.002951260748880095</v>
+      </c>
+      <c r="D60">
+        <v>-0.03918422740501767</v>
+      </c>
+      <c r="E60">
+        <v>-0.01059520677199991</v>
+      </c>
+      <c r="F60">
+        <v>0.001896810077856902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03179811048880752</v>
+        <v>0.08303269983126446</v>
       </c>
       <c r="C61">
-        <v>-0.1310461787738488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01278609502576744</v>
+      </c>
+      <c r="D61">
+        <v>-0.1162007651852444</v>
+      </c>
+      <c r="E61">
+        <v>-0.03947553998415806</v>
+      </c>
+      <c r="F61">
+        <v>-0.01226427558438799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03841078240941988</v>
+        <v>0.170159985372461</v>
       </c>
       <c r="C62">
-        <v>-0.1679295317797715</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01933218692691787</v>
+      </c>
+      <c r="D62">
+        <v>-0.007544229714318122</v>
+      </c>
+      <c r="E62">
+        <v>-0.03564830876801931</v>
+      </c>
+      <c r="F62">
+        <v>-0.03798956526335688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0127183935967018</v>
+        <v>0.04332527103772288</v>
       </c>
       <c r="C63">
-        <v>-0.05616243074328985</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002427550074051675</v>
+      </c>
+      <c r="D63">
+        <v>-0.0580338696669187</v>
+      </c>
+      <c r="E63">
+        <v>-0.0200074639434842</v>
+      </c>
+      <c r="F63">
+        <v>-0.00428400461538144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02487630226863915</v>
+        <v>0.1100425519731408</v>
       </c>
       <c r="C64">
-        <v>-0.09920481057471338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01171287774070412</v>
+      </c>
+      <c r="D64">
+        <v>-0.04176575148418309</v>
+      </c>
+      <c r="E64">
+        <v>-0.02238583086432387</v>
+      </c>
+      <c r="F64">
+        <v>-0.02608794041217874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04199802649474488</v>
+        <v>0.1466139719646641</v>
       </c>
       <c r="C65">
-        <v>-0.1073909873220471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03197346018967664</v>
+      </c>
+      <c r="D65">
+        <v>0.04205854859815071</v>
+      </c>
+      <c r="E65">
+        <v>-0.002835091549943421</v>
+      </c>
+      <c r="F65">
+        <v>-0.03840802770913885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04172415561837534</v>
+        <v>0.1277518286702302</v>
       </c>
       <c r="C66">
-        <v>-0.2043432511865034</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01490482774951295</v>
+      </c>
+      <c r="D66">
+        <v>-0.1416177918579295</v>
+      </c>
+      <c r="E66">
+        <v>-0.06778031379678966</v>
+      </c>
+      <c r="F66">
+        <v>-0.03116484910083332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01603152056188537</v>
+        <v>0.06308799549644994</v>
       </c>
       <c r="C67">
-        <v>-0.0667242191853399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003268232841367217</v>
+      </c>
+      <c r="D67">
+        <v>-0.0552123224772674</v>
+      </c>
+      <c r="E67">
+        <v>-0.01849221154015152</v>
+      </c>
+      <c r="F67">
+        <v>0.03202342916901033</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01470137659466424</v>
+        <v>0.116013589317206</v>
       </c>
       <c r="C68">
-        <v>-0.02370034935957496</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02790136771494934</v>
+      </c>
+      <c r="D68">
+        <v>0.2594236802903271</v>
+      </c>
+      <c r="E68">
+        <v>0.08762966464760615</v>
+      </c>
+      <c r="F68">
+        <v>-0.004311539035495096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.008698128100910913</v>
+        <v>0.03941517596070245</v>
       </c>
       <c r="C69">
-        <v>-0.03388557757119336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.00123853052141109</v>
+      </c>
+      <c r="D69">
+        <v>-0.007588508517633092</v>
+      </c>
+      <c r="E69">
+        <v>-0.02331712899574082</v>
+      </c>
+      <c r="F69">
+        <v>0.0005343715800443183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001688600417764938</v>
+        <v>0.06303860087304408</v>
       </c>
       <c r="C70">
-        <v>-0.03562512337147705</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02841827142495427</v>
+      </c>
+      <c r="D70">
+        <v>-0.02829065177752306</v>
+      </c>
+      <c r="E70">
+        <v>0.04254511166766031</v>
+      </c>
+      <c r="F70">
+        <v>0.1873171681547447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01813354622203645</v>
+        <v>0.1351644349159094</v>
       </c>
       <c r="C71">
-        <v>-0.02780929039050166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03275760722246893</v>
+      </c>
+      <c r="D71">
+        <v>0.2733917686122611</v>
+      </c>
+      <c r="E71">
+        <v>0.09736028397142241</v>
+      </c>
+      <c r="F71">
+        <v>-0.01092617548951517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03859796549702025</v>
+        <v>0.1410935567534061</v>
       </c>
       <c r="C72">
-        <v>-0.1146901117257525</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02557916831709352</v>
+      </c>
+      <c r="D72">
+        <v>-0.001146491563959841</v>
+      </c>
+      <c r="E72">
+        <v>-0.04027882673428869</v>
+      </c>
+      <c r="F72">
+        <v>-0.03663075186592392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03697085784422009</v>
+        <v>0.2011401609732534</v>
       </c>
       <c r="C73">
-        <v>-0.2112810796876342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01291003177240221</v>
+      </c>
+      <c r="D73">
+        <v>-0.01338840031198747</v>
+      </c>
+      <c r="E73">
+        <v>-0.06403212469567079</v>
+      </c>
+      <c r="F73">
+        <v>-0.03928781790092864</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02203917154393369</v>
+        <v>0.09492232807554646</v>
       </c>
       <c r="C74">
-        <v>-0.1168448786299661</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01297393600051289</v>
+      </c>
+      <c r="D74">
+        <v>-0.01807169200254514</v>
+      </c>
+      <c r="E74">
+        <v>-0.04521247146155135</v>
+      </c>
+      <c r="F74">
+        <v>-0.05798798097994855</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04449086242704203</v>
+        <v>0.1291573512852455</v>
       </c>
       <c r="C75">
-        <v>-0.1343093287643163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02755580356909779</v>
+      </c>
+      <c r="D75">
+        <v>-0.02992931807748497</v>
+      </c>
+      <c r="E75">
+        <v>-0.05937773093363067</v>
+      </c>
+      <c r="F75">
+        <v>-0.02042053272712302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004748031269209961</v>
+        <v>0.001299452704254588</v>
       </c>
       <c r="C76">
-        <v>-0.004913068643317742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0003386757748393988</v>
+      </c>
+      <c r="D76">
+        <v>0.0009265600845057742</v>
+      </c>
+      <c r="E76">
+        <v>-0.0003831906012144055</v>
+      </c>
+      <c r="F76">
+        <v>-0.001770870013764543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02324008589101831</v>
+        <v>0.08063199503411654</v>
       </c>
       <c r="C77">
-        <v>-0.1074737222079865</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.00862876128486865</v>
+      </c>
+      <c r="D77">
+        <v>-0.1189777186856537</v>
+      </c>
+      <c r="E77">
+        <v>-0.04098597099055175</v>
+      </c>
+      <c r="F77">
+        <v>-0.02831814157883557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05991719080214115</v>
+        <v>0.1016438464494477</v>
       </c>
       <c r="C78">
-        <v>-0.114045736360546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03978322982176385</v>
+      </c>
+      <c r="D78">
+        <v>-0.1163629182861959</v>
+      </c>
+      <c r="E78">
+        <v>-0.07917133442468689</v>
+      </c>
+      <c r="F78">
+        <v>-0.04592484475835107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03713552246672274</v>
+        <v>0.1646442781530867</v>
       </c>
       <c r="C79">
-        <v>-0.1460253566090499</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02168951108220474</v>
+      </c>
+      <c r="D79">
+        <v>-0.01682634801108851</v>
+      </c>
+      <c r="E79">
+        <v>-0.04791066054104665</v>
+      </c>
+      <c r="F79">
+        <v>-0.01514519227248251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.006849913202695274</v>
+        <v>0.08161767778410488</v>
       </c>
       <c r="C80">
-        <v>-0.09772456163536307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0005252234575234214</v>
+      </c>
+      <c r="D80">
+        <v>-0.05654915033949758</v>
+      </c>
+      <c r="E80">
+        <v>-0.03623890417618895</v>
+      </c>
+      <c r="F80">
+        <v>0.02607526388507352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04468036376392524</v>
+        <v>0.1229577271398081</v>
       </c>
       <c r="C81">
-        <v>-0.1527603760884029</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03143589965372569</v>
+      </c>
+      <c r="D81">
+        <v>-0.01593680546814136</v>
+      </c>
+      <c r="E81">
+        <v>-0.05930632305451863</v>
+      </c>
+      <c r="F81">
+        <v>-0.01928121902215723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03606028610176374</v>
+        <v>0.1654473308642055</v>
       </c>
       <c r="C82">
-        <v>-0.1731552953408803</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0239604037280174</v>
+      </c>
+      <c r="D82">
+        <v>-0.004866913060921774</v>
+      </c>
+      <c r="E82">
+        <v>-0.02797514368971846</v>
+      </c>
+      <c r="F82">
+        <v>-0.08094071383186222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0172501859061366</v>
+        <v>0.06142092235294604</v>
       </c>
       <c r="C83">
-        <v>-0.07893933651354069</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.00334407331192755</v>
+      </c>
+      <c r="D83">
+        <v>-0.04994341724455596</v>
+      </c>
+      <c r="E83">
+        <v>-0.005800531415269675</v>
+      </c>
+      <c r="F83">
+        <v>0.03249817701909266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02431081543218015</v>
+        <v>0.05832621616400148</v>
       </c>
       <c r="C84">
-        <v>-0.07454757974286229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01094347433395765</v>
+      </c>
+      <c r="D84">
+        <v>-0.06595301279977643</v>
+      </c>
+      <c r="E84">
+        <v>-0.007337393082518882</v>
+      </c>
+      <c r="F84">
+        <v>-0.006097868372933028</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03870269714045971</v>
+        <v>0.1380137067231277</v>
       </c>
       <c r="C85">
-        <v>-0.1203321411449385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02738904095635993</v>
+      </c>
+      <c r="D85">
+        <v>-0.01067738185803273</v>
+      </c>
+      <c r="E85">
+        <v>-0.03955917040117694</v>
+      </c>
+      <c r="F85">
+        <v>-0.04817653079034719</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01562562977977193</v>
+        <v>0.09624391189301031</v>
       </c>
       <c r="C86">
-        <v>-0.1133489803132435</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006575147512696848</v>
+      </c>
+      <c r="D86">
+        <v>-0.04037668698173814</v>
+      </c>
+      <c r="E86">
+        <v>-0.2121247035615224</v>
+      </c>
+      <c r="F86">
+        <v>0.9083498430082723</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0436036319772539</v>
+        <v>0.09588581660775916</v>
       </c>
       <c r="C87">
-        <v>-0.1092409400110866</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02158282528890784</v>
+      </c>
+      <c r="D87">
+        <v>-0.09237127786825353</v>
+      </c>
+      <c r="E87">
+        <v>0.05300499778657582</v>
+      </c>
+      <c r="F87">
+        <v>-0.05126981563873306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01393105286073335</v>
+        <v>0.06101198559405924</v>
       </c>
       <c r="C88">
-        <v>-0.05815605189605545</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002586804426697496</v>
+      </c>
+      <c r="D88">
+        <v>-0.05052251812746138</v>
+      </c>
+      <c r="E88">
+        <v>-0.02535406518168236</v>
+      </c>
+      <c r="F88">
+        <v>-0.01427674194284629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0003668219759418582</v>
+        <v>0.1333530532324596</v>
       </c>
       <c r="C89">
-        <v>-0.05032238947007273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01002948285569122</v>
+      </c>
+      <c r="D89">
+        <v>0.2512139770670326</v>
+      </c>
+      <c r="E89">
+        <v>0.090287693808765</v>
+      </c>
+      <c r="F89">
+        <v>0.00677479819898372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01904713273258418</v>
+        <v>0.1476374894186676</v>
       </c>
       <c r="C90">
-        <v>-0.0316599279075511</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.0285172275649107</v>
+      </c>
+      <c r="D90">
+        <v>0.2660157174208058</v>
+      </c>
+      <c r="E90">
+        <v>0.1117122378615257</v>
+      </c>
+      <c r="F90">
+        <v>0.003880830149632464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0232685176203293</v>
+        <v>0.119646628444231</v>
       </c>
       <c r="C91">
-        <v>-0.09198360470001628</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01801785913337602</v>
+      </c>
+      <c r="D91">
+        <v>0.01129106505800498</v>
+      </c>
+      <c r="E91">
+        <v>-0.05742686877462481</v>
+      </c>
+      <c r="F91">
+        <v>0.0003851221828850475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>1.08282201838432e-05</v>
+        <v>0.1468495712271958</v>
       </c>
       <c r="C92">
-        <v>-0.04767949616181692</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02060772192509357</v>
+      </c>
+      <c r="D92">
+        <v>0.2911600357636842</v>
+      </c>
+      <c r="E92">
+        <v>0.1022829354370683</v>
+      </c>
+      <c r="F92">
+        <v>0.01597940004384286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01279366144101176</v>
+        <v>0.15061514029616</v>
       </c>
       <c r="C93">
-        <v>-0.03549736675357283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02467104211421553</v>
+      </c>
+      <c r="D93">
+        <v>0.2661919605859396</v>
+      </c>
+      <c r="E93">
+        <v>0.07865558534399697</v>
+      </c>
+      <c r="F93">
+        <v>-0.00292883959366993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04563176270755918</v>
+        <v>0.1321470250709401</v>
       </c>
       <c r="C94">
-        <v>-0.1579841993520412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02443413052606056</v>
+      </c>
+      <c r="D94">
+        <v>-0.04345119703843624</v>
+      </c>
+      <c r="E94">
+        <v>-0.05858480089682323</v>
+      </c>
+      <c r="F94">
+        <v>-0.03692811760540794</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03399210398383072</v>
+        <v>0.125835006487411</v>
       </c>
       <c r="C95">
-        <v>-0.1324312444918198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004466069602399292</v>
+      </c>
+      <c r="D95">
+        <v>-0.09304310900896903</v>
+      </c>
+      <c r="E95">
+        <v>-0.04682734021658214</v>
+      </c>
+      <c r="F95">
+        <v>0.01087783738044551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9723272682817853</v>
+        <v>0.1033354233879652</v>
       </c>
       <c r="C96">
-        <v>-0.2154099049178806</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9881667506104632</v>
+      </c>
+      <c r="D96">
+        <v>0.03801599746836287</v>
+      </c>
+      <c r="E96">
+        <v>-0.05664747428166201</v>
+      </c>
+      <c r="F96">
+        <v>-0.0432505700321936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01233521181563422</v>
+        <v>0.1909743816775097</v>
       </c>
       <c r="C97">
-        <v>-0.1732209362108705</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008787669845588059</v>
+      </c>
+      <c r="D97">
+        <v>0.01756667600120914</v>
+      </c>
+      <c r="E97">
+        <v>-0.01591969970552481</v>
+      </c>
+      <c r="F97">
+        <v>0.09366199190372049</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03200378711885168</v>
+        <v>0.206021074276207</v>
       </c>
       <c r="C98">
-        <v>-0.195573386140288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007400501879541544</v>
+      </c>
+      <c r="D98">
+        <v>-0.006761488523437653</v>
+      </c>
+      <c r="E98">
+        <v>0.08680890337590159</v>
+      </c>
+      <c r="F98">
+        <v>0.09532294793738884</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.007045510365845269</v>
+        <v>0.05595932456789608</v>
       </c>
       <c r="C99">
-        <v>-0.05576318880737332</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004484237598054593</v>
+      </c>
+      <c r="D99">
+        <v>-0.0385759367799226</v>
+      </c>
+      <c r="E99">
+        <v>-0.02375625018411555</v>
+      </c>
+      <c r="F99">
+        <v>-0.0001149224925112418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.002832513174346225</v>
+        <v>0.1269911168654602</v>
       </c>
       <c r="C100">
-        <v>-0.132310312962179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05269699262562694</v>
+      </c>
+      <c r="D100">
+        <v>-0.3494720307088071</v>
+      </c>
+      <c r="E100">
+        <v>0.8866883195871097</v>
+      </c>
+      <c r="F100">
+        <v>0.1371167261452129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01543782319920351</v>
+        <v>0.02648402987921255</v>
       </c>
       <c r="C101">
-        <v>-0.02820757431838415</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008203993471985901</v>
+      </c>
+      <c r="D101">
+        <v>-0.0329310510282295</v>
+      </c>
+      <c r="E101">
+        <v>-0.01049251001320647</v>
+      </c>
+      <c r="F101">
+        <v>0.01311585452818587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
